--- a/zc/test/FormatoExcel2007WSExternos.xlsx
+++ b/zc/test/FormatoExcel2007WSExternos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="585" windowWidth="19815" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="4" r:id="rId1"/>
@@ -337,7 +337,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t>Nombre Formulario</t>
   </si>
@@ -583,6 +583,9 @@
   </si>
   <si>
     <t>http://192.168.0.7/zerocodigo/www/index.php/ws_paises/ajax/ajaxServidor</t>
+  </si>
+  <si>
+    <t>MySQLi</t>
   </si>
 </sst>
 </file>
@@ -998,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1042,7 +1045,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -1103,7 +1106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -1304,7 +1307,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1353,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>65</v>
